--- a/_CONCAT_JFC.xlsx
+++ b/_CONCAT_JFC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8747DCFC-0315-425F-A884-521320FC7A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E7AE1C-BE1E-4ABC-A6C6-0C7694FFF38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="870" windowWidth="29100" windowHeight="19800" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="540" yWindow="450" windowWidth="29040" windowHeight="19785" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,13 +63,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -92,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -100,17 +111,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,10 +326,75 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676909</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>84455</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="27940" cy="7620"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Shape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A6A0AA-BBE3-43DC-BBF1-673993404E05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8049259" y="22639655"/>
+          <a:ext cx="27940" cy="7620"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path w="27940" h="7620">
+              <a:moveTo>
+                <a:pt x="27431" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="7620"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="27431" y="7620"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="27431" y="0"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000">
+            <a:alpha val="50000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,7 +432,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -275,7 +538,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -417,7 +680,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -425,9 +688,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9569D8B-2D3C-4734-8A88-E4228D8D8D71}">
-  <dimension ref="A1:AP43"/>
+  <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -460,22 +723,22 @@
     <col min="25" max="25" width="5.28515625" customWidth="1"/>
     <col min="26" max="26" width="2.28515625" customWidth="1"/>
     <col min="27" max="27" width="3.7109375" customWidth="1"/>
-    <col min="29" max="29" width="4" customWidth="1"/>
-    <col min="30" max="30" width="4.85546875" customWidth="1"/>
-    <col min="31" max="31" width="4" customWidth="1"/>
-    <col min="32" max="32" width="3.5703125" customWidth="1"/>
-    <col min="33" max="33" width="4" customWidth="1"/>
-    <col min="34" max="34" width="3.7109375" customWidth="1"/>
-    <col min="35" max="35" width="4.28515625" customWidth="1"/>
-    <col min="36" max="36" width="4" customWidth="1"/>
-    <col min="37" max="37" width="4.42578125" customWidth="1"/>
-    <col min="38" max="38" width="4.5703125" customWidth="1"/>
-    <col min="39" max="39" width="4" customWidth="1"/>
-    <col min="41" max="41" width="16.42578125" customWidth="1"/>
-    <col min="42" max="42" width="86.7109375" customWidth="1"/>
+    <col min="30" max="30" width="4" customWidth="1"/>
+    <col min="31" max="31" width="4.85546875" customWidth="1"/>
+    <col min="32" max="32" width="4" customWidth="1"/>
+    <col min="33" max="33" width="3.5703125" customWidth="1"/>
+    <col min="34" max="34" width="4" customWidth="1"/>
+    <col min="35" max="35" width="3.7109375" customWidth="1"/>
+    <col min="36" max="36" width="4.28515625" customWidth="1"/>
+    <col min="37" max="37" width="4" customWidth="1"/>
+    <col min="38" max="38" width="4.42578125" customWidth="1"/>
+    <col min="39" max="39" width="4.5703125" customWidth="1"/>
+    <col min="40" max="40" width="4" customWidth="1"/>
+    <col min="42" max="42" width="16.42578125" customWidth="1"/>
+    <col min="43" max="43" width="86.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -503,7 +766,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
-      <c r="AC1" s="3"/>
+      <c r="AB1" s="2"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
@@ -514,195 +777,613 @@
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
-    </row>
-    <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="AC2" t="str">
-        <f>A2&amp;" - "&amp;C2</f>
+      <c r="AN1" s="3"/>
+    </row>
+    <row r="2" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="17"/>
+      <c r="AD2" t="str">
+        <f>A2&amp;" - "&amp;B2</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="AD2" t="str">
+      <c r="AE2" t="str">
         <f>"DRAWING / SPECIFICATION REF.: "&amp;D2</f>
         <v xml:space="preserve">DRAWING / SPECIFICATION REF.: </v>
       </c>
-      <c r="AE2" t="str">
+      <c r="AF2" t="str">
         <f>"SPECIFICATION DETAIL SUMMARY: "&amp;G2</f>
         <v xml:space="preserve">SPECIFICATION DETAIL SUMMARY: </v>
       </c>
-      <c r="AF2" t="str">
+      <c r="AG2" t="str">
         <f>"ACCEPTANCE CRITERIA: "&amp;K2</f>
         <v xml:space="preserve">ACCEPTANCE CRITERIA: </v>
       </c>
-      <c r="AG2" t="str">
-        <f>"TEST SPEC AND FREQUENCY: "&amp;N2</f>
+      <c r="AH2" t="str">
+        <f>"TEST SPEC AND FREQUENCY: "&amp;M2</f>
         <v xml:space="preserve">TEST SPEC AND FREQUENCY: </v>
       </c>
-      <c r="AH2" t="str">
-        <f>"CONTROL TYPE I.E. CHECKSHEET / RECORDS: "&amp;P2</f>
-        <v xml:space="preserve">CONTROL TYPE I.E. CHECKSHEET / RECORDS: </v>
-      </c>
       <c r="AI2" t="str">
-        <f>"HOLD / WITNESS: "&amp;Q2</f>
+        <f>"CONTROL TYPE I.E. CHECKSHEET / IANZ RECORDS: "&amp;P2</f>
+        <v xml:space="preserve">CONTROL TYPE I.E. CHECKSHEET / IANZ RECORDS: </v>
+      </c>
+      <c r="AJ2" t="str">
+        <f>"HOLD / WITNESS: "&amp;R2</f>
         <v xml:space="preserve">HOLD / WITNESS: </v>
       </c>
-      <c r="AJ2" t="str">
-        <f>"EXTERNAL (REQUESTED BY PS4) / INTERNAL (JFC REQUIREMENT): "&amp;T2</f>
-        <v xml:space="preserve">EXTERNAL (REQUESTED BY PS4) / INTERNAL (JFC REQUIREMENT): </v>
-      </c>
       <c r="AK2" t="str">
-        <f>"PS3 OWNER: "&amp;W2</f>
+        <f>"INTERNAL / EXTERNAL: "&amp;T2</f>
+        <v xml:space="preserve">INTERNAL / EXTERNAL: </v>
+      </c>
+      <c r="AL2" t="str">
+        <f>"PS3 OWNER: "&amp;X2</f>
         <v xml:space="preserve">PS3 OWNER: </v>
       </c>
-      <c r="AL2" t="str">
-        <f>"HOLD / REVIEW / WITNESS: "&amp;Y2</f>
-        <v xml:space="preserve">HOLD / REVIEW / WITNESS: </v>
-      </c>
       <c r="AM2" t="str">
-        <f>"PS4 OWNER SIGN OFF: "&amp;AA2</f>
+        <f>"HOLD / WITNESS: "&amp;Z2</f>
+        <v xml:space="preserve">HOLD / WITNESS: </v>
+      </c>
+      <c r="AN2" t="str">
+        <f>"PS4 OWNER SIGN OFF: "&amp;AB2</f>
         <v xml:space="preserve">PS4 OWNER SIGN OFF: </v>
       </c>
-      <c r="AP2" t="str" cm="1">
-        <f t="array" ref="AP2:AP12">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,AC2:AM40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+      <c r="AQ2" t="str" cm="1">
+        <f t="array" ref="AQ2:AQ12">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,AD2:AN40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="AP3" t="str">
+    <row r="3" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="17"/>
+      <c r="AQ3" t="str">
         <v>DRAWING / SPECIFICATION REF.:</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="AP4" t="str">
+    <row r="4" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="17"/>
+      <c r="AQ4" t="str">
         <v>SPECIFICATION DETAIL SUMMARY:</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="AP5" t="str">
+    <row r="5" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="17"/>
+      <c r="AQ5" t="str">
         <v>ACCEPTANCE CRITERIA:</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="AP6" t="str">
+    <row r="6" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="17"/>
+      <c r="AQ6" t="str">
         <v>TEST SPEC AND FREQUENCY:</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="AP7" t="str">
-        <v>CONTROL TYPE I.E. CHECKSHEET / RECORDS:</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="AP8" t="str">
+    <row r="7" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="17"/>
+      <c r="AQ7" t="str">
+        <v>CONTROL TYPE I.E. CHECKSHEET / IANZ RECORDS:</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="17"/>
+      <c r="AQ8" t="str">
         <v>HOLD / WITNESS:</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="AP9" t="str">
-        <v>EXTERNAL (REQUESTED BY PS4) / INTERNAL (JFC REQUIREMENT):</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="AP10" t="str">
+    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="17"/>
+      <c r="AQ9" t="str">
+        <v>INTERNAL / EXTERNAL:</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="40"/>
+      <c r="AQ10" t="str">
         <v>PS3 OWNER:</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-      <c r="AP11" t="str">
-        <v>HOLD / REVIEW / WITNESS:</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="AP12" t="str">
+    <row r="11" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="40"/>
+      <c r="AQ11" t="str">
+        <v>HOLD / WITNESS:</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="41"/>
+      <c r="AQ12" t="str">
         <v>PS4 OWNER SIGN OFF:</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="40"/>
+    </row>
+    <row r="14" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="40"/>
+    </row>
+    <row r="15" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="40"/>
+    </row>
+    <row r="16" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="40"/>
+    </row>
+    <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="40"/>
+    </row>
+    <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="40"/>
+    </row>
+    <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -715,6 +1396,180 @@
     <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="170">
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G3:J3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>